--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/25/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/25/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2072072072072072</v>
+        <v>0.3497349734973497</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.5305305305305</v>
+        <v>399.4699469946995</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06326326326326327</v>
+        <v>0.03473347334733473</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1221221221221221</v>
+        <v>0.254925492549255</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856.8568568568569</v>
+        <v>1202.870287028703</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1601601601602</v>
+        <v>930.5130513051305</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>778.7787787787788</v>
+        <v>330.5031503150315</v>
       </c>
     </row>
   </sheetData>
